--- a/Figure5/data_for_heatmap5b_v25data.xlsx
+++ b/Figure5/data_for_heatmap5b_v25data.xlsx
@@ -2639,7 +2639,7 @@
         <v>0</v>
       </c>
       <c r="D131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E131" t="s">
         <v>13</v>
@@ -2653,10 +2653,10 @@
         <v>13</v>
       </c>
       <c r="C132" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D132" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E132" t="s">
         <v>13</v>
@@ -2670,10 +2670,10 @@
         <v>13</v>
       </c>
       <c r="C133" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D133" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E133" t="s">
         <v>13</v>
@@ -2687,10 +2687,10 @@
         <v>13</v>
       </c>
       <c r="C134" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D134" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E134" t="s">
         <v>13</v>
@@ -2707,7 +2707,7 @@
         <v>10</v>
       </c>
       <c r="D135" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E135" t="s">
         <v>13</v>
@@ -2721,10 +2721,10 @@
         <v>13</v>
       </c>
       <c r="C136" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="D136" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E136" t="s">
         <v>13</v>
@@ -2738,10 +2738,10 @@
         <v>13</v>
       </c>
       <c r="C137" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D137" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="E137" t="s">
         <v>13</v>
@@ -2755,10 +2755,10 @@
         <v>13</v>
       </c>
       <c r="C138" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="D138" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="E138" t="s">
         <v>13</v>
@@ -2772,10 +2772,10 @@
         <v>13</v>
       </c>
       <c r="C139" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D139" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="E139" t="s">
         <v>13</v>
@@ -2789,10 +2789,10 @@
         <v>13</v>
       </c>
       <c r="C140" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="D140" t="n">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="E140" t="s">
         <v>13</v>
@@ -2806,10 +2806,10 @@
         <v>13</v>
       </c>
       <c r="C141" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="D141" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E141" t="s">
         <v>13</v>
@@ -2823,10 +2823,10 @@
         <v>13</v>
       </c>
       <c r="C142" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="D142" t="n">
-        <v>12</v>
+        <v>5</v>
       </c>
       <c r="E142" t="s">
         <v>13</v>
@@ -2834,19 +2834,19 @@
     </row>
     <row r="143">
       <c r="A143" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C143" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="D143" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="E143" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="144">
@@ -2857,7 +2857,7 @@
         <v>15</v>
       </c>
       <c r="C144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D144" t="n">
         <v>1</v>
@@ -2874,7 +2874,7 @@
         <v>15</v>
       </c>
       <c r="C145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -2891,7 +2891,7 @@
         <v>15</v>
       </c>
       <c r="C146" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D146" t="n">
         <v>1</v>
@@ -2908,10 +2908,10 @@
         <v>15</v>
       </c>
       <c r="C147" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E147" t="s">
         <v>15</v>
@@ -2925,7 +2925,7 @@
         <v>15</v>
       </c>
       <c r="C148" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D148" t="n">
         <v>2</v>
@@ -2942,10 +2942,10 @@
         <v>15</v>
       </c>
       <c r="C149" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D149" t="n">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E149" t="s">
         <v>15</v>
@@ -2959,10 +2959,10 @@
         <v>15</v>
       </c>
       <c r="C150" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D150" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="E150" t="s">
         <v>15</v>
@@ -2976,10 +2976,10 @@
         <v>15</v>
       </c>
       <c r="C151" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D151" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E151" t="s">
         <v>15</v>
@@ -2993,10 +2993,10 @@
         <v>15</v>
       </c>
       <c r="C152" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D152" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
         <v>15</v>
@@ -3010,7 +3010,7 @@
         <v>15</v>
       </c>
       <c r="C153" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -3027,7 +3027,7 @@
         <v>15</v>
       </c>
       <c r="C154" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -3044,10 +3044,10 @@
         <v>15</v>
       </c>
       <c r="C155" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E155" t="s">
         <v>15</v>
@@ -3061,7 +3061,7 @@
         <v>15</v>
       </c>
       <c r="C156" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D156" t="n">
         <v>2</v>
@@ -3078,7 +3078,7 @@
         <v>15</v>
       </c>
       <c r="C157" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D157" t="n">
         <v>2</v>
@@ -3095,10 +3095,10 @@
         <v>15</v>
       </c>
       <c r="C158" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D158" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E158" t="s">
         <v>15</v>
@@ -3112,7 +3112,7 @@
         <v>15</v>
       </c>
       <c r="C159" t="n">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -3129,7 +3129,7 @@
         <v>15</v>
       </c>
       <c r="C160" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D160" t="n">
         <v>1</v>
@@ -3146,7 +3146,7 @@
         <v>15</v>
       </c>
       <c r="C161" t="n">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="D161" t="n">
         <v>1</v>
@@ -3157,19 +3157,19 @@
     </row>
     <row r="162">
       <c r="A162" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B162" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C162" t="n">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="D162" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E162" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="163">
@@ -3180,10 +3180,10 @@
         <v>17</v>
       </c>
       <c r="C163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D163" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E163" t="s">
         <v>17</v>
@@ -3197,10 +3197,10 @@
         <v>17</v>
       </c>
       <c r="C164" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D164" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E164" t="s">
         <v>17</v>
@@ -3214,10 +3214,10 @@
         <v>17</v>
       </c>
       <c r="C165" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D165" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E165" t="s">
         <v>17</v>
@@ -3231,10 +3231,10 @@
         <v>17</v>
       </c>
       <c r="C166" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D166" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E166" t="s">
         <v>17</v>
@@ -3248,10 +3248,10 @@
         <v>17</v>
       </c>
       <c r="C167" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D167" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E167" t="s">
         <v>17</v>
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="C168" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D168" t="n">
         <v>3</v>
@@ -3282,10 +3282,10 @@
         <v>17</v>
       </c>
       <c r="C169" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D169" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E169" t="s">
         <v>17</v>
@@ -3299,10 +3299,10 @@
         <v>17</v>
       </c>
       <c r="C170" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D170" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E170" t="s">
         <v>17</v>
@@ -3316,10 +3316,10 @@
         <v>17</v>
       </c>
       <c r="C171" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D171" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E171" t="s">
         <v>17</v>
@@ -3333,10 +3333,10 @@
         <v>17</v>
       </c>
       <c r="C172" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D172" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E172" t="s">
         <v>17</v>
@@ -3350,10 +3350,10 @@
         <v>17</v>
       </c>
       <c r="C173" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D173" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E173" t="s">
         <v>17</v>
@@ -3367,10 +3367,10 @@
         <v>17</v>
       </c>
       <c r="C174" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D174" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E174" t="s">
         <v>17</v>
@@ -3384,10 +3384,10 @@
         <v>17</v>
       </c>
       <c r="C175" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D175" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E175" t="s">
         <v>17</v>
@@ -3401,10 +3401,10 @@
         <v>17</v>
       </c>
       <c r="C176" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D176" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E176" t="s">
         <v>17</v>
@@ -3418,7 +3418,7 @@
         <v>17</v>
       </c>
       <c r="C177" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
@@ -3435,7 +3435,7 @@
         <v>17</v>
       </c>
       <c r="C178" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D178" t="n">
         <v>1</v>
@@ -3452,7 +3452,7 @@
         <v>17</v>
       </c>
       <c r="C179" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D179" t="n">
         <v>1</v>
@@ -3469,7 +3469,7 @@
         <v>17</v>
       </c>
       <c r="C180" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
@@ -3486,7 +3486,7 @@
         <v>17</v>
       </c>
       <c r="C181" t="n">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
@@ -3503,10 +3503,10 @@
         <v>17</v>
       </c>
       <c r="C182" t="n">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="D182" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E182" t="s">
         <v>17</v>
@@ -3520,10 +3520,10 @@
         <v>17</v>
       </c>
       <c r="C183" t="n">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D183" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E183" t="s">
         <v>17</v>
@@ -3537,10 +3537,10 @@
         <v>17</v>
       </c>
       <c r="C184" t="n">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="D184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E184" t="s">
         <v>17</v>
@@ -3554,10 +3554,10 @@
         <v>17</v>
       </c>
       <c r="C185" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="D185" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E185" t="s">
         <v>17</v>
@@ -3571,10 +3571,10 @@
         <v>17</v>
       </c>
       <c r="C186" t="n">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D186" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E186" t="s">
         <v>17</v>
@@ -3585,16 +3585,16 @@
         <v>16</v>
       </c>
       <c r="B187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C187" t="n">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="D187" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E187" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="188">
@@ -3605,10 +3605,10 @@
         <v>18</v>
       </c>
       <c r="C188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E188" t="s">
         <v>18</v>
@@ -3622,7 +3622,7 @@
         <v>18</v>
       </c>
       <c r="C189" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
@@ -3639,7 +3639,7 @@
         <v>18</v>
       </c>
       <c r="C190" t="n">
-        <v>31</v>
+        <v>3</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -3656,10 +3656,10 @@
         <v>18</v>
       </c>
       <c r="C191" t="n">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="D191" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E191" t="s">
         <v>18</v>
@@ -3673,10 +3673,10 @@
         <v>18</v>
       </c>
       <c r="C192" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D192" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E192" t="s">
         <v>18</v>
@@ -3690,7 +3690,7 @@
         <v>18</v>
       </c>
       <c r="C193" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D193" t="n">
         <v>2</v>
@@ -3707,10 +3707,10 @@
         <v>18</v>
       </c>
       <c r="C194" t="n">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D194" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E194" t="s">
         <v>18</v>
@@ -3724,10 +3724,10 @@
         <v>18</v>
       </c>
       <c r="C195" t="n">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="D195" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E195" t="s">
         <v>18</v>
@@ -3741,10 +3741,10 @@
         <v>18</v>
       </c>
       <c r="C196" t="n">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D196" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E196" t="s">
         <v>18</v>
@@ -3758,10 +3758,10 @@
         <v>18</v>
       </c>
       <c r="C197" t="n">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D197" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E197" t="s">
         <v>18</v>
@@ -3775,10 +3775,10 @@
         <v>18</v>
       </c>
       <c r="C198" t="n">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E198" t="s">
         <v>18</v>
@@ -3792,7 +3792,7 @@
         <v>18</v>
       </c>
       <c r="C199" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D199" t="n">
         <v>2</v>
@@ -3809,10 +3809,10 @@
         <v>18</v>
       </c>
       <c r="C200" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E200" t="s">
         <v>18</v>
@@ -3826,7 +3826,7 @@
         <v>18</v>
       </c>
       <c r="C201" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
@@ -3843,7 +3843,7 @@
         <v>18</v>
       </c>
       <c r="C202" t="n">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D202" t="n">
         <v>1</v>
@@ -3860,10 +3860,10 @@
         <v>18</v>
       </c>
       <c r="C203" t="n">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D203" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E203" t="s">
         <v>18</v>
@@ -3877,10 +3877,10 @@
         <v>18</v>
       </c>
       <c r="C204" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D204" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E204" t="s">
         <v>18</v>
@@ -3894,10 +3894,10 @@
         <v>18</v>
       </c>
       <c r="C205" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D205" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E205" t="s">
         <v>18</v>
@@ -3911,7 +3911,7 @@
         <v>18</v>
       </c>
       <c r="C206" t="n">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D206" t="n">
         <v>1</v>
@@ -3928,7 +3928,7 @@
         <v>18</v>
       </c>
       <c r="C207" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D207" t="n">
         <v>1</v>
@@ -3945,10 +3945,10 @@
         <v>18</v>
       </c>
       <c r="C208" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D208" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E208" t="s">
         <v>18</v>
@@ -3962,10 +3962,10 @@
         <v>18</v>
       </c>
       <c r="C209" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D209" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E209" t="s">
         <v>18</v>
@@ -3979,10 +3979,10 @@
         <v>18</v>
       </c>
       <c r="C210" t="n">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D210" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E210" t="s">
         <v>18</v>
@@ -3996,10 +3996,10 @@
         <v>18</v>
       </c>
       <c r="C211" t="n">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D211" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E211" t="s">
         <v>18</v>
@@ -4013,7 +4013,7 @@
         <v>18</v>
       </c>
       <c r="C212" t="n">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D212" t="n">
         <v>4</v>
@@ -4030,10 +4030,10 @@
         <v>18</v>
       </c>
       <c r="C213" t="n">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D213" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E213" t="s">
         <v>18</v>
@@ -4047,10 +4047,10 @@
         <v>18</v>
       </c>
       <c r="C214" t="n">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="D214" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E214" t="s">
         <v>18</v>
@@ -4064,7 +4064,7 @@
         <v>18</v>
       </c>
       <c r="C215" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -4081,7 +4081,7 @@
         <v>18</v>
       </c>
       <c r="C216" t="n">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -4098,7 +4098,7 @@
         <v>18</v>
       </c>
       <c r="C217" t="n">
-        <v>113</v>
+        <v>106</v>
       </c>
       <c r="D217" t="n">
         <v>1</v>
@@ -4115,7 +4115,7 @@
         <v>18</v>
       </c>
       <c r="C218" t="n">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D218" t="n">
         <v>1</v>
@@ -4132,7 +4132,7 @@
         <v>18</v>
       </c>
       <c r="C219" t="n">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D219" t="n">
         <v>1</v>
@@ -4149,7 +4149,7 @@
         <v>18</v>
       </c>
       <c r="C220" t="n">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D220" t="n">
         <v>1</v>
@@ -4166,10 +4166,10 @@
         <v>18</v>
       </c>
       <c r="C221" t="n">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D221" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E221" t="s">
         <v>18</v>
@@ -4183,10 +4183,10 @@
         <v>18</v>
       </c>
       <c r="C222" t="n">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="D222" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E222" t="s">
         <v>18</v>
@@ -4200,10 +4200,10 @@
         <v>18</v>
       </c>
       <c r="C223" t="n">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D223" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E223" t="s">
         <v>18</v>
@@ -4217,7 +4217,7 @@
         <v>18</v>
       </c>
       <c r="C224" t="n">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="D224" t="n">
         <v>3</v>
@@ -4234,10 +4234,10 @@
         <v>18</v>
       </c>
       <c r="C225" t="n">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D225" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E225" t="s">
         <v>18</v>
@@ -4251,10 +4251,10 @@
         <v>18</v>
       </c>
       <c r="C226" t="n">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D226" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E226" t="s">
         <v>18</v>
@@ -4268,10 +4268,10 @@
         <v>18</v>
       </c>
       <c r="C227" t="n">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D227" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E227" t="s">
         <v>18</v>
@@ -4285,7 +4285,7 @@
         <v>18</v>
       </c>
       <c r="C228" t="n">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="D228" t="n">
         <v>1</v>
@@ -4302,7 +4302,7 @@
         <v>18</v>
       </c>
       <c r="C229" t="n">
-        <v>171</v>
+        <v>164</v>
       </c>
       <c r="D229" t="n">
         <v>1</v>
@@ -4319,7 +4319,7 @@
         <v>18</v>
       </c>
       <c r="C230" t="n">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D230" t="n">
         <v>1</v>
@@ -4336,7 +4336,7 @@
         <v>18</v>
       </c>
       <c r="C231" t="n">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D231" t="n">
         <v>1</v>
@@ -4353,10 +4353,10 @@
         <v>18</v>
       </c>
       <c r="C232" t="n">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="D232" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E232" t="s">
         <v>18</v>
@@ -4370,10 +4370,10 @@
         <v>18</v>
       </c>
       <c r="C233" t="n">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D233" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E233" t="s">
         <v>18</v>
@@ -4387,7 +4387,7 @@
         <v>18</v>
       </c>
       <c r="C234" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D234" t="n">
         <v>1</v>
@@ -4404,10 +4404,10 @@
         <v>18</v>
       </c>
       <c r="C235" t="n">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D235" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E235" t="s">
         <v>18</v>
@@ -4421,10 +4421,10 @@
         <v>18</v>
       </c>
       <c r="C236" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D236" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E236" t="s">
         <v>18</v>
@@ -4435,16 +4435,16 @@
         <v>16</v>
       </c>
       <c r="B237" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C237" t="n">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="D237" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E237" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="238">
@@ -4455,10 +4455,10 @@
         <v>19</v>
       </c>
       <c r="C238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E238" t="s">
         <v>19</v>
@@ -4472,7 +4472,7 @@
         <v>19</v>
       </c>
       <c r="C239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D239" t="n">
         <v>2</v>
@@ -4489,10 +4489,10 @@
         <v>19</v>
       </c>
       <c r="C240" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D240" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E240" t="s">
         <v>19</v>
@@ -4506,7 +4506,7 @@
         <v>19</v>
       </c>
       <c r="C241" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -4523,7 +4523,7 @@
         <v>19</v>
       </c>
       <c r="C242" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="D242" t="n">
         <v>1</v>
@@ -4540,10 +4540,10 @@
         <v>19</v>
       </c>
       <c r="C243" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D243" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E243" t="s">
         <v>19</v>
@@ -4557,10 +4557,10 @@
         <v>19</v>
       </c>
       <c r="C244" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D244" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E244" t="s">
         <v>19</v>
@@ -4574,10 +4574,10 @@
         <v>19</v>
       </c>
       <c r="C245" t="n">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E245" t="s">
         <v>19</v>
@@ -4591,10 +4591,10 @@
         <v>19</v>
       </c>
       <c r="C246" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D246" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E246" t="s">
         <v>19</v>
@@ -4608,10 +4608,10 @@
         <v>19</v>
       </c>
       <c r="C247" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E247" t="s">
         <v>19</v>
@@ -4625,7 +4625,7 @@
         <v>19</v>
       </c>
       <c r="C248" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D248" t="n">
         <v>2</v>
@@ -4642,10 +4642,10 @@
         <v>19</v>
       </c>
       <c r="C249" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D249" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E249" t="s">
         <v>19</v>
@@ -4659,10 +4659,10 @@
         <v>19</v>
       </c>
       <c r="C250" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D250" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E250" t="s">
         <v>19</v>
@@ -4676,7 +4676,7 @@
         <v>19</v>
       </c>
       <c r="C251" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D251" t="n">
         <v>1</v>
@@ -4693,10 +4693,10 @@
         <v>19</v>
       </c>
       <c r="C252" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E252" t="s">
         <v>19</v>
@@ -4710,10 +4710,10 @@
         <v>19</v>
       </c>
       <c r="C253" t="n">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="D253" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E253" t="s">
         <v>19</v>
@@ -4727,7 +4727,7 @@
         <v>19</v>
       </c>
       <c r="C254" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D254" t="n">
         <v>3</v>
@@ -4744,10 +4744,10 @@
         <v>19</v>
       </c>
       <c r="C255" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D255" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E255" t="s">
         <v>19</v>
@@ -4761,10 +4761,10 @@
         <v>19</v>
       </c>
       <c r="C256" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D256" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E256" t="s">
         <v>19</v>
@@ -4778,10 +4778,10 @@
         <v>19</v>
       </c>
       <c r="C257" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D257" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E257" t="s">
         <v>19</v>
@@ -4795,10 +4795,10 @@
         <v>19</v>
       </c>
       <c r="C258" t="n">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D258" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E258" t="s">
         <v>19</v>
@@ -4812,10 +4812,10 @@
         <v>19</v>
       </c>
       <c r="C259" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="D259" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E259" t="s">
         <v>19</v>
@@ -4829,10 +4829,10 @@
         <v>19</v>
       </c>
       <c r="C260" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D260" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E260" t="s">
         <v>19</v>
@@ -4846,10 +4846,10 @@
         <v>19</v>
       </c>
       <c r="C261" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D261" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E261" t="s">
         <v>19</v>
@@ -4863,10 +4863,10 @@
         <v>19</v>
       </c>
       <c r="C262" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E262" t="s">
         <v>19</v>
@@ -4880,10 +4880,10 @@
         <v>19</v>
       </c>
       <c r="C263" t="n">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D263" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E263" t="s">
         <v>19</v>
@@ -4897,10 +4897,10 @@
         <v>19</v>
       </c>
       <c r="C264" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D264" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E264" t="s">
         <v>19</v>
@@ -4914,10 +4914,10 @@
         <v>19</v>
       </c>
       <c r="C265" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D265" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E265" t="s">
         <v>19</v>
@@ -4931,10 +4931,10 @@
         <v>19</v>
       </c>
       <c r="C266" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D266" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E266" t="s">
         <v>19</v>
@@ -4948,10 +4948,10 @@
         <v>19</v>
       </c>
       <c r="C267" t="n">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D267" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E267" t="s">
         <v>19</v>
@@ -4965,10 +4965,10 @@
         <v>19</v>
       </c>
       <c r="C268" t="n">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D268" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E268" t="s">
         <v>19</v>
@@ -4982,10 +4982,10 @@
         <v>19</v>
       </c>
       <c r="C269" t="n">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E269" t="s">
         <v>19</v>
@@ -4999,7 +4999,7 @@
         <v>19</v>
       </c>
       <c r="C270" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D270" t="n">
         <v>2</v>
@@ -5016,10 +5016,10 @@
         <v>19</v>
       </c>
       <c r="C271" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D271" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E271" t="s">
         <v>19</v>
@@ -5033,10 +5033,10 @@
         <v>19</v>
       </c>
       <c r="C272" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D272" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E272" t="s">
         <v>19</v>
@@ -5050,10 +5050,10 @@
         <v>19</v>
       </c>
       <c r="C273" t="n">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D273" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E273" t="s">
         <v>19</v>
@@ -5067,10 +5067,10 @@
         <v>19</v>
       </c>
       <c r="C274" t="n">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D274" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E274" t="s">
         <v>19</v>
@@ -5084,10 +5084,10 @@
         <v>19</v>
       </c>
       <c r="C275" t="n">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D275" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E275" t="s">
         <v>19</v>
@@ -5101,10 +5101,10 @@
         <v>19</v>
       </c>
       <c r="C276" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D276" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E276" t="s">
         <v>19</v>
@@ -5118,10 +5118,10 @@
         <v>19</v>
       </c>
       <c r="C277" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D277" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E277" t="s">
         <v>19</v>
@@ -5135,10 +5135,10 @@
         <v>19</v>
       </c>
       <c r="C278" t="n">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="D278" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E278" t="s">
         <v>19</v>
@@ -5152,10 +5152,10 @@
         <v>19</v>
       </c>
       <c r="C279" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D279" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E279" t="s">
         <v>19</v>
@@ -5169,10 +5169,10 @@
         <v>19</v>
       </c>
       <c r="C280" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D280" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="E280" t="s">
         <v>19</v>
@@ -5186,10 +5186,10 @@
         <v>19</v>
       </c>
       <c r="C281" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D281" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E281" t="s">
         <v>19</v>
@@ -5203,10 +5203,10 @@
         <v>19</v>
       </c>
       <c r="C282" t="n">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E282" t="s">
         <v>19</v>
@@ -5220,10 +5220,10 @@
         <v>19</v>
       </c>
       <c r="C283" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D283" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E283" t="s">
         <v>19</v>
@@ -5237,10 +5237,10 @@
         <v>19</v>
       </c>
       <c r="C284" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D284" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E284" t="s">
         <v>19</v>
@@ -5254,10 +5254,10 @@
         <v>19</v>
       </c>
       <c r="C285" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D285" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E285" t="s">
         <v>19</v>
@@ -5271,10 +5271,10 @@
         <v>19</v>
       </c>
       <c r="C286" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D286" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E286" t="s">
         <v>19</v>
@@ -5288,10 +5288,10 @@
         <v>19</v>
       </c>
       <c r="C287" t="n">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="D287" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E287" t="s">
         <v>19</v>
@@ -5305,10 +5305,10 @@
         <v>19</v>
       </c>
       <c r="C288" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D288" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E288" t="s">
         <v>19</v>
@@ -5322,10 +5322,10 @@
         <v>19</v>
       </c>
       <c r="C289" t="n">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D289" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E289" t="s">
         <v>19</v>
@@ -5339,10 +5339,10 @@
         <v>19</v>
       </c>
       <c r="C290" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D290" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E290" t="s">
         <v>19</v>
@@ -5356,7 +5356,7 @@
         <v>19</v>
       </c>
       <c r="C291" t="n">
-        <v>106</v>
+        <v>94</v>
       </c>
       <c r="D291" t="n">
         <v>3</v>
@@ -5373,10 +5373,10 @@
         <v>19</v>
       </c>
       <c r="C292" t="n">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="D292" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E292" t="s">
         <v>19</v>
@@ -5390,7 +5390,7 @@
         <v>19</v>
       </c>
       <c r="C293" t="n">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D293" t="n">
         <v>1</v>
@@ -5407,10 +5407,10 @@
         <v>19</v>
       </c>
       <c r="C294" t="n">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D294" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E294" t="s">
         <v>19</v>
@@ -5424,10 +5424,10 @@
         <v>19</v>
       </c>
       <c r="C295" t="n">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D295" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E295" t="s">
         <v>19</v>
@@ -5441,10 +5441,10 @@
         <v>19</v>
       </c>
       <c r="C296" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D296" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E296" t="s">
         <v>19</v>
@@ -5458,10 +5458,10 @@
         <v>19</v>
       </c>
       <c r="C297" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D297" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E297" t="s">
         <v>19</v>
@@ -5475,10 +5475,10 @@
         <v>19</v>
       </c>
       <c r="C298" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D298" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E298" t="s">
         <v>19</v>
@@ -5492,10 +5492,10 @@
         <v>19</v>
       </c>
       <c r="C299" t="n">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D299" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E299" t="s">
         <v>19</v>
@@ -5509,10 +5509,10 @@
         <v>19</v>
       </c>
       <c r="C300" t="n">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D300" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E300" t="s">
         <v>19</v>
@@ -5526,10 +5526,10 @@
         <v>19</v>
       </c>
       <c r="C301" t="n">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D301" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E301" t="s">
         <v>19</v>
@@ -5543,10 +5543,10 @@
         <v>19</v>
       </c>
       <c r="C302" t="n">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D302" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E302" t="s">
         <v>19</v>
@@ -5560,10 +5560,10 @@
         <v>19</v>
       </c>
       <c r="C303" t="n">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D303" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E303" t="s">
         <v>19</v>
@@ -5577,10 +5577,10 @@
         <v>19</v>
       </c>
       <c r="C304" t="n">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="D304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E304" t="s">
         <v>19</v>
@@ -5594,10 +5594,10 @@
         <v>19</v>
       </c>
       <c r="C305" t="n">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="D305" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E305" t="s">
         <v>19</v>
@@ -5611,10 +5611,10 @@
         <v>19</v>
       </c>
       <c r="C306" t="n">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D306" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E306" t="s">
         <v>19</v>
@@ -5628,7 +5628,7 @@
         <v>19</v>
       </c>
       <c r="C307" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D307" t="n">
         <v>1</v>
@@ -5645,7 +5645,7 @@
         <v>19</v>
       </c>
       <c r="C308" t="n">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="D308" t="n">
         <v>1</v>
@@ -5662,7 +5662,7 @@
         <v>19</v>
       </c>
       <c r="C309" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D309" t="n">
         <v>1</v>
@@ -5679,10 +5679,10 @@
         <v>19</v>
       </c>
       <c r="C310" t="n">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E310" t="s">
         <v>19</v>
@@ -5696,10 +5696,10 @@
         <v>19</v>
       </c>
       <c r="C311" t="n">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="D311" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E311" t="s">
         <v>19</v>
@@ -5713,7 +5713,7 @@
         <v>19</v>
       </c>
       <c r="C312" t="n">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D312" t="n">
         <v>1</v>
@@ -5727,16 +5727,16 @@
         <v>16</v>
       </c>
       <c r="B313" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C313" t="n">
-        <v>0</v>
+        <v>145</v>
       </c>
       <c r="D313" t="n">
         <v>1</v>
       </c>
       <c r="E313" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="314">
@@ -5747,7 +5747,7 @@
         <v>20</v>
       </c>
       <c r="C314" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D314" t="n">
         <v>1</v>
@@ -5764,7 +5764,7 @@
         <v>20</v>
       </c>
       <c r="C315" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D315" t="n">
         <v>1</v>
@@ -5781,7 +5781,7 @@
         <v>20</v>
       </c>
       <c r="C316" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D316" t="n">
         <v>1</v>
@@ -5798,7 +5798,7 @@
         <v>20</v>
       </c>
       <c r="C317" t="n">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="D317" t="n">
         <v>1</v>
@@ -5815,7 +5815,7 @@
         <v>20</v>
       </c>
       <c r="C318" t="n">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="D318" t="n">
         <v>1</v>
@@ -5832,10 +5832,10 @@
         <v>20</v>
       </c>
       <c r="C319" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D319" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E319" t="s">
         <v>20</v>
@@ -5849,10 +5849,10 @@
         <v>20</v>
       </c>
       <c r="C320" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D320" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E320" t="s">
         <v>20</v>
@@ -5866,7 +5866,7 @@
         <v>20</v>
       </c>
       <c r="C321" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D321" t="n">
         <v>2</v>
@@ -5883,7 +5883,7 @@
         <v>20</v>
       </c>
       <c r="C322" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D322" t="n">
         <v>2</v>
@@ -5900,7 +5900,7 @@
         <v>20</v>
       </c>
       <c r="C323" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D323" t="n">
         <v>2</v>
@@ -5917,10 +5917,10 @@
         <v>20</v>
       </c>
       <c r="C324" t="n">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D324" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E324" t="s">
         <v>20</v>
@@ -5934,7 +5934,7 @@
         <v>20</v>
       </c>
       <c r="C325" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D325" t="n">
         <v>1</v>
@@ -5951,10 +5951,10 @@
         <v>20</v>
       </c>
       <c r="C326" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D326" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E326" t="s">
         <v>20</v>
@@ -5968,10 +5968,10 @@
         <v>20</v>
       </c>
       <c r="C327" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="D327" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E327" t="s">
         <v>20</v>
@@ -5985,10 +5985,10 @@
         <v>20</v>
       </c>
       <c r="C328" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D328" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E328" t="s">
         <v>20</v>
@@ -6002,10 +6002,10 @@
         <v>20</v>
       </c>
       <c r="C329" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D329" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E329" t="s">
         <v>20</v>
@@ -6019,10 +6019,10 @@
         <v>20</v>
       </c>
       <c r="C330" t="n">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D330" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E330" t="s">
         <v>20</v>
@@ -6036,10 +6036,10 @@
         <v>20</v>
       </c>
       <c r="C331" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D331" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E331" t="s">
         <v>20</v>
@@ -6053,7 +6053,7 @@
         <v>20</v>
       </c>
       <c r="C332" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D332" t="n">
         <v>2</v>
@@ -6070,10 +6070,10 @@
         <v>20</v>
       </c>
       <c r="C333" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D333" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E333" t="s">
         <v>20</v>
@@ -6087,10 +6087,10 @@
         <v>20</v>
       </c>
       <c r="C334" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D334" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E334" t="s">
         <v>20</v>
@@ -6104,10 +6104,10 @@
         <v>20</v>
       </c>
       <c r="C335" t="n">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D335" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E335" t="s">
         <v>20</v>
@@ -6121,10 +6121,10 @@
         <v>20</v>
       </c>
       <c r="C336" t="n">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="D336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E336" t="s">
         <v>20</v>
@@ -6138,10 +6138,10 @@
         <v>20</v>
       </c>
       <c r="C337" t="n">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D337" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E337" t="s">
         <v>20</v>
@@ -6155,10 +6155,10 @@
         <v>20</v>
       </c>
       <c r="C338" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E338" t="s">
         <v>20</v>
@@ -6172,10 +6172,10 @@
         <v>20</v>
       </c>
       <c r="C339" t="n">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="D339" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E339" t="s">
         <v>20</v>
@@ -6189,7 +6189,7 @@
         <v>20</v>
       </c>
       <c r="C340" t="n">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="D340" t="n">
         <v>1</v>
@@ -6206,7 +6206,7 @@
         <v>20</v>
       </c>
       <c r="C341" t="n">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D341" t="n">
         <v>1</v>
@@ -6223,7 +6223,7 @@
         <v>20</v>
       </c>
       <c r="C342" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D342" t="n">
         <v>1</v>
@@ -6240,10 +6240,10 @@
         <v>20</v>
       </c>
       <c r="C343" t="n">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="D343" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E343" t="s">
         <v>20</v>
@@ -6257,10 +6257,10 @@
         <v>20</v>
       </c>
       <c r="C344" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D344" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E344" t="s">
         <v>20</v>
@@ -6274,10 +6274,10 @@
         <v>20</v>
       </c>
       <c r="C345" t="n">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="D345" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E345" t="s">
         <v>20</v>
@@ -6291,10 +6291,10 @@
         <v>20</v>
       </c>
       <c r="C346" t="n">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="D346" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E346" t="s">
         <v>20</v>
@@ -6308,7 +6308,7 @@
         <v>20</v>
       </c>
       <c r="C347" t="n">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D347" t="n">
         <v>1</v>
@@ -6325,7 +6325,7 @@
         <v>20</v>
       </c>
       <c r="C348" t="n">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="D348" t="n">
         <v>1</v>
@@ -6342,7 +6342,7 @@
         <v>20</v>
       </c>
       <c r="C349" t="n">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="D349" t="n">
         <v>1</v>
@@ -6359,7 +6359,7 @@
         <v>20</v>
       </c>
       <c r="C350" t="n">
-        <v>117</v>
+        <v>101</v>
       </c>
       <c r="D350" t="n">
         <v>1</v>
@@ -6373,16 +6373,16 @@
         <v>16</v>
       </c>
       <c r="B351" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C351" t="n">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="D351" t="n">
         <v>1</v>
       </c>
       <c r="E351" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="352">
@@ -6393,10 +6393,10 @@
         <v>21</v>
       </c>
       <c r="C352" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E352" t="s">
         <v>21</v>
@@ -6410,10 +6410,10 @@
         <v>21</v>
       </c>
       <c r="C353" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D353" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E353" t="s">
         <v>21</v>
@@ -6427,7 +6427,7 @@
         <v>21</v>
       </c>
       <c r="C354" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D354" t="n">
         <v>4</v>
@@ -6444,10 +6444,10 @@
         <v>21</v>
       </c>
       <c r="C355" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D355" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E355" t="s">
         <v>21</v>
@@ -6461,7 +6461,7 @@
         <v>21</v>
       </c>
       <c r="C356" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D356" t="n">
         <v>7</v>
@@ -6478,10 +6478,10 @@
         <v>21</v>
       </c>
       <c r="C357" t="n">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D357" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E357" t="s">
         <v>21</v>
@@ -6495,10 +6495,10 @@
         <v>21</v>
       </c>
       <c r="C358" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D358" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E358" t="s">
         <v>21</v>
@@ -6512,7 +6512,7 @@
         <v>21</v>
       </c>
       <c r="C359" t="n">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D359" t="n">
         <v>1</v>
@@ -6529,7 +6529,7 @@
         <v>21</v>
       </c>
       <c r="C360" t="n">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D360" t="n">
         <v>1</v>
@@ -6546,10 +6546,10 @@
         <v>21</v>
       </c>
       <c r="C361" t="n">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D361" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E361" t="s">
         <v>21</v>
@@ -6563,10 +6563,10 @@
         <v>21</v>
       </c>
       <c r="C362" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D362" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E362" t="s">
         <v>21</v>
@@ -6580,10 +6580,10 @@
         <v>21</v>
       </c>
       <c r="C363" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D363" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E363" t="s">
         <v>21</v>
@@ -6597,10 +6597,10 @@
         <v>21</v>
       </c>
       <c r="C364" t="n">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="D364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E364" t="s">
         <v>21</v>
@@ -6614,7 +6614,7 @@
         <v>21</v>
       </c>
       <c r="C365" t="n">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D365" t="n">
         <v>2</v>
@@ -6631,7 +6631,7 @@
         <v>21</v>
       </c>
       <c r="C366" t="n">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D366" t="n">
         <v>2</v>
@@ -6648,10 +6648,10 @@
         <v>21</v>
       </c>
       <c r="C367" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D367" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E367" t="s">
         <v>21</v>
@@ -6665,7 +6665,7 @@
         <v>21</v>
       </c>
       <c r="C368" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D368" t="n">
         <v>1</v>
@@ -6682,7 +6682,7 @@
         <v>21</v>
       </c>
       <c r="C369" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D369" t="n">
         <v>1</v>
@@ -6699,7 +6699,7 @@
         <v>21</v>
       </c>
       <c r="C370" t="n">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D370" t="n">
         <v>1</v>
@@ -6716,7 +6716,7 @@
         <v>21</v>
       </c>
       <c r="C371" t="n">
-        <v>148</v>
+        <v>111</v>
       </c>
       <c r="D371" t="n">
         <v>1</v>
@@ -6730,16 +6730,16 @@
         <v>16</v>
       </c>
       <c r="B372" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C372" t="n">
-        <v>0</v>
+        <v>148</v>
       </c>
       <c r="D372" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E372" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="373">
@@ -6750,10 +6750,10 @@
         <v>22</v>
       </c>
       <c r="C373" t="n">
+        <v>0</v>
+      </c>
+      <c r="D373" t="n">
         <v>3</v>
-      </c>
-      <c r="D373" t="n">
-        <v>1</v>
       </c>
       <c r="E373" t="s">
         <v>22</v>
@@ -6767,10 +6767,10 @@
         <v>22</v>
       </c>
       <c r="C374" t="n">
-        <v>33</v>
+        <v>3</v>
       </c>
       <c r="D374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E374" t="s">
         <v>22</v>
@@ -6784,7 +6784,7 @@
         <v>22</v>
       </c>
       <c r="C375" t="n">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="D375" t="n">
         <v>2</v>
@@ -6801,10 +6801,10 @@
         <v>22</v>
       </c>
       <c r="C376" t="n">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D376" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E376" t="s">
         <v>22</v>
@@ -6818,7 +6818,7 @@
         <v>22</v>
       </c>
       <c r="C377" t="n">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="D377" t="n">
         <v>1</v>
@@ -6835,10 +6835,10 @@
         <v>22</v>
       </c>
       <c r="C378" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E378" t="s">
         <v>22</v>
@@ -6852,10 +6852,10 @@
         <v>22</v>
       </c>
       <c r="C379" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D379" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E379" t="s">
         <v>22</v>
@@ -6869,7 +6869,7 @@
         <v>22</v>
       </c>
       <c r="C380" t="n">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D380" t="n">
         <v>1</v>
@@ -6886,7 +6886,7 @@
         <v>22</v>
       </c>
       <c r="C381" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D381" t="n">
         <v>1</v>
@@ -6903,10 +6903,10 @@
         <v>22</v>
       </c>
       <c r="C382" t="n">
-        <v>66</v>
+        <v>58</v>
       </c>
       <c r="D382" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="E382" t="s">
         <v>22</v>
@@ -6920,10 +6920,10 @@
         <v>22</v>
       </c>
       <c r="C383" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D383" t="n">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="E383" t="s">
         <v>22</v>
@@ -6937,10 +6937,10 @@
         <v>22</v>
       </c>
       <c r="C384" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D384" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="E384" t="s">
         <v>22</v>
@@ -6954,10 +6954,10 @@
         <v>22</v>
       </c>
       <c r="C385" t="n">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D385" t="n">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="E385" t="s">
         <v>22</v>
@@ -6971,10 +6971,10 @@
         <v>22</v>
       </c>
       <c r="C386" t="n">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D386" t="n">
-        <v>16</v>
+        <v>3</v>
       </c>
       <c r="E386" t="s">
         <v>22</v>
@@ -6988,10 +6988,10 @@
         <v>22</v>
       </c>
       <c r="C387" t="n">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D387" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E387" t="s">
         <v>22</v>
@@ -7005,10 +7005,10 @@
         <v>22</v>
       </c>
       <c r="C388" t="n">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D388" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E388" t="s">
         <v>22</v>
@@ -7022,10 +7022,10 @@
         <v>22</v>
       </c>
       <c r="C389" t="n">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D389" t="n">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="E389" t="s">
         <v>22</v>
@@ -7039,10 +7039,10 @@
         <v>22</v>
       </c>
       <c r="C390" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D390" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E390" t="s">
         <v>22</v>
@@ -7056,10 +7056,10 @@
         <v>22</v>
       </c>
       <c r="C391" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D391" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E391" t="s">
         <v>22</v>
@@ -7073,10 +7073,10 @@
         <v>22</v>
       </c>
       <c r="C392" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D392" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E392" t="s">
         <v>22</v>
@@ -7090,10 +7090,10 @@
         <v>22</v>
       </c>
       <c r="C393" t="n">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D393" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="E393" t="s">
         <v>22</v>
@@ -7107,10 +7107,10 @@
         <v>22</v>
       </c>
       <c r="C394" t="n">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D394" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="E394" t="s">
         <v>22</v>
@@ -7124,10 +7124,10 @@
         <v>22</v>
       </c>
       <c r="C395" t="n">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="D395" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="E395" t="s">
         <v>22</v>
@@ -7141,10 +7141,10 @@
         <v>22</v>
       </c>
       <c r="C396" t="n">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D396" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E396" t="s">
         <v>22</v>
@@ -7158,10 +7158,10 @@
         <v>22</v>
       </c>
       <c r="C397" t="n">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D397" t="n">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="E397" t="s">
         <v>22</v>
@@ -7175,10 +7175,10 @@
         <v>22</v>
       </c>
       <c r="C398" t="n">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D398" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="E398" t="s">
         <v>22</v>
@@ -7192,10 +7192,10 @@
         <v>22</v>
       </c>
       <c r="C399" t="n">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D399" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E399" t="s">
         <v>22</v>
@@ -7209,10 +7209,10 @@
         <v>22</v>
       </c>
       <c r="C400" t="n">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="D400" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E400" t="s">
         <v>22</v>
@@ -7226,10 +7226,10 @@
         <v>22</v>
       </c>
       <c r="C401" t="n">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="D401" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E401" t="s">
         <v>22</v>
@@ -7243,10 +7243,10 @@
         <v>22</v>
       </c>
       <c r="C402" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D402" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E402" t="s">
         <v>22</v>
@@ -7260,10 +7260,10 @@
         <v>22</v>
       </c>
       <c r="C403" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D403" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E403" t="s">
         <v>22</v>
@@ -7277,10 +7277,10 @@
         <v>22</v>
       </c>
       <c r="C404" t="n">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="D404" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E404" t="s">
         <v>22</v>
@@ -7294,10 +7294,10 @@
         <v>22</v>
       </c>
       <c r="C405" t="n">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D405" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E405" t="s">
         <v>22</v>
@@ -7311,10 +7311,10 @@
         <v>22</v>
       </c>
       <c r="C406" t="n">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D406" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E406" t="s">
         <v>22</v>
@@ -7328,10 +7328,10 @@
         <v>22</v>
       </c>
       <c r="C407" t="n">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="D407" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E407" t="s">
         <v>22</v>
@@ -7345,10 +7345,10 @@
         <v>22</v>
       </c>
       <c r="C408" t="n">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D408" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E408" t="s">
         <v>22</v>
@@ -7362,10 +7362,10 @@
         <v>22</v>
       </c>
       <c r="C409" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D409" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E409" t="s">
         <v>22</v>
@@ -7379,7 +7379,7 @@
         <v>22</v>
       </c>
       <c r="C410" t="n">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D410" t="n">
         <v>2</v>
@@ -7396,10 +7396,10 @@
         <v>22</v>
       </c>
       <c r="C411" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="D411" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E411" t="s">
         <v>22</v>
@@ -7413,7 +7413,7 @@
         <v>22</v>
       </c>
       <c r="C412" t="n">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="D412" t="n">
         <v>1</v>
@@ -7430,7 +7430,7 @@
         <v>22</v>
       </c>
       <c r="C413" t="n">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="D413" t="n">
         <v>1</v>
@@ -7447,7 +7447,7 @@
         <v>22</v>
       </c>
       <c r="C414" t="n">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D414" t="n">
         <v>1</v>
@@ -7464,7 +7464,7 @@
         <v>22</v>
       </c>
       <c r="C415" t="n">
-        <v>163</v>
+        <v>123</v>
       </c>
       <c r="D415" t="n">
         <v>1</v>
@@ -7481,7 +7481,7 @@
         <v>22</v>
       </c>
       <c r="C416" t="n">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="D416" t="n">
         <v>1</v>
@@ -7498,10 +7498,10 @@
         <v>22</v>
       </c>
       <c r="C417" t="n">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D417" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E417" t="s">
         <v>22</v>
@@ -7515,10 +7515,10 @@
         <v>22</v>
       </c>
       <c r="C418" t="n">
-        <v>174</v>
+        <v>167</v>
       </c>
       <c r="D418" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E418" t="s">
         <v>22</v>
@@ -7532,7 +7532,7 @@
         <v>22</v>
       </c>
       <c r="C419" t="n">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="D419" t="n">
         <v>1</v>
@@ -7549,7 +7549,7 @@
         <v>22</v>
       </c>
       <c r="C420" t="n">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D420" t="n">
         <v>1</v>
@@ -7566,7 +7566,7 @@
         <v>22</v>
       </c>
       <c r="C421" t="n">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D421" t="n">
         <v>1</v>
@@ -7580,16 +7580,16 @@
         <v>16</v>
       </c>
       <c r="B422" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C422" t="n">
-        <v>0</v>
+        <v>186</v>
       </c>
       <c r="D422" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E422" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="423">
@@ -7600,10 +7600,10 @@
         <v>23</v>
       </c>
       <c r="C423" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="D423" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E423" t="s">
         <v>23</v>
@@ -7617,10 +7617,10 @@
         <v>23</v>
       </c>
       <c r="C424" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D424" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E424" t="s">
         <v>23</v>
@@ -7634,10 +7634,10 @@
         <v>23</v>
       </c>
       <c r="C425" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="D425" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E425" t="s">
         <v>23</v>
@@ -7651,7 +7651,7 @@
         <v>23</v>
       </c>
       <c r="C426" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D426" t="n">
         <v>1</v>
@@ -7668,7 +7668,7 @@
         <v>23</v>
       </c>
       <c r="C427" t="n">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D427" t="n">
         <v>1</v>
@@ -7685,7 +7685,7 @@
         <v>23</v>
       </c>
       <c r="C428" t="n">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="D428" t="n">
         <v>1</v>
@@ -7702,7 +7702,7 @@
         <v>23</v>
       </c>
       <c r="C429" t="n">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D429" t="n">
         <v>1</v>
@@ -7719,10 +7719,10 @@
         <v>23</v>
       </c>
       <c r="C430" t="n">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E430" t="s">
         <v>23</v>
@@ -7736,7 +7736,7 @@
         <v>23</v>
       </c>
       <c r="C431" t="n">
-        <v>83</v>
+        <v>55</v>
       </c>
       <c r="D431" t="n">
         <v>2</v>
@@ -7753,10 +7753,10 @@
         <v>23</v>
       </c>
       <c r="C432" t="n">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D432" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E432" t="s">
         <v>23</v>
@@ -7770,10 +7770,10 @@
         <v>23</v>
       </c>
       <c r="C433" t="n">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D433" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E433" t="s">
         <v>23</v>
@@ -7787,10 +7787,10 @@
         <v>23</v>
       </c>
       <c r="C434" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D434" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E434" t="s">
         <v>23</v>
@@ -7804,10 +7804,10 @@
         <v>23</v>
       </c>
       <c r="C435" t="n">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D435" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E435" t="s">
         <v>23</v>
@@ -7821,10 +7821,10 @@
         <v>23</v>
       </c>
       <c r="C436" t="n">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="D436" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E436" t="s">
         <v>23</v>
@@ -7838,10 +7838,10 @@
         <v>23</v>
       </c>
       <c r="C437" t="n">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="D437" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E437" t="s">
         <v>23</v>
@@ -7855,10 +7855,10 @@
         <v>23</v>
       </c>
       <c r="C438" t="n">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="D438" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E438" t="s">
         <v>23</v>
@@ -7872,10 +7872,10 @@
         <v>23</v>
       </c>
       <c r="C439" t="n">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D439" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E439" t="s">
         <v>23</v>
@@ -7889,10 +7889,10 @@
         <v>23</v>
       </c>
       <c r="C440" t="n">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D440" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E440" t="s">
         <v>23</v>
@@ -7906,10 +7906,10 @@
         <v>23</v>
       </c>
       <c r="C441" t="n">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D441" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E441" t="s">
         <v>23</v>
@@ -7923,10 +7923,10 @@
         <v>23</v>
       </c>
       <c r="C442" t="n">
-        <v>130</v>
+        <v>105</v>
       </c>
       <c r="D442" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E442" t="s">
         <v>23</v>
@@ -7940,7 +7940,7 @@
         <v>23</v>
       </c>
       <c r="C443" t="n">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D443" t="n">
         <v>1</v>
@@ -7957,7 +7957,7 @@
         <v>23</v>
       </c>
       <c r="C444" t="n">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D444" t="n">
         <v>1</v>
@@ -7971,16 +7971,16 @@
         <v>16</v>
       </c>
       <c r="B445" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C445" t="n">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="D445" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="E445" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="446">
@@ -7991,10 +7991,10 @@
         <v>24</v>
       </c>
       <c r="C446" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D446" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E446" t="s">
         <v>24</v>
@@ -8008,10 +8008,10 @@
         <v>24</v>
       </c>
       <c r="C447" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D447" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E447" t="s">
         <v>24</v>
@@ -8025,10 +8025,10 @@
         <v>24</v>
       </c>
       <c r="C448" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D448" t="n">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="E448" t="s">
         <v>24</v>
@@ -8042,10 +8042,10 @@
         <v>24</v>
       </c>
       <c r="C449" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D449" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="E449" t="s">
         <v>24</v>
@@ -8059,10 +8059,10 @@
         <v>24</v>
       </c>
       <c r="C450" t="n">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="D450" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E450" t="s">
         <v>24</v>
@@ -8076,7 +8076,7 @@
         <v>24</v>
       </c>
       <c r="C451" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D451" t="n">
         <v>1</v>
@@ -8093,7 +8093,7 @@
         <v>24</v>
       </c>
       <c r="C452" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D452" t="n">
         <v>1</v>
@@ -8110,7 +8110,7 @@
         <v>24</v>
       </c>
       <c r="C453" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D453" t="n">
         <v>1</v>
@@ -8127,7 +8127,7 @@
         <v>24</v>
       </c>
       <c r="C454" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D454" t="n">
         <v>1</v>
@@ -8144,10 +8144,10 @@
         <v>24</v>
       </c>
       <c r="C455" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D455" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E455" t="s">
         <v>24</v>
@@ -8161,10 +8161,10 @@
         <v>24</v>
       </c>
       <c r="C456" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D456" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E456" t="s">
         <v>24</v>
@@ -8178,10 +8178,10 @@
         <v>24</v>
       </c>
       <c r="C457" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D457" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E457" t="s">
         <v>24</v>
@@ -8195,10 +8195,10 @@
         <v>24</v>
       </c>
       <c r="C458" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D458" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E458" t="s">
         <v>24</v>
@@ -8212,10 +8212,10 @@
         <v>24</v>
       </c>
       <c r="C459" t="n">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D459" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E459" t="s">
         <v>24</v>
@@ -8229,10 +8229,10 @@
         <v>24</v>
       </c>
       <c r="C460" t="n">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D460" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E460" t="s">
         <v>24</v>
@@ -8246,10 +8246,10 @@
         <v>24</v>
       </c>
       <c r="C461" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D461" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E461" t="s">
         <v>24</v>
@@ -8263,10 +8263,10 @@
         <v>24</v>
       </c>
       <c r="C462" t="n">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D462" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E462" t="s">
         <v>24</v>
@@ -8280,10 +8280,10 @@
         <v>24</v>
       </c>
       <c r="C463" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D463" t="n">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="E463" t="s">
         <v>24</v>
@@ -8297,10 +8297,10 @@
         <v>24</v>
       </c>
       <c r="C464" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D464" t="n">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E464" t="s">
         <v>24</v>
@@ -8314,7 +8314,7 @@
         <v>24</v>
       </c>
       <c r="C465" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D465" t="n">
         <v>1</v>
@@ -8331,10 +8331,10 @@
         <v>24</v>
       </c>
       <c r="C466" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E466" t="s">
         <v>24</v>
@@ -8348,10 +8348,10 @@
         <v>24</v>
       </c>
       <c r="C467" t="n">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D467" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E467" t="s">
         <v>24</v>
@@ -8365,10 +8365,10 @@
         <v>24</v>
       </c>
       <c r="C468" t="n">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="D468" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E468" t="s">
         <v>24</v>
@@ -8382,10 +8382,10 @@
         <v>24</v>
       </c>
       <c r="C469" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D469" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E469" t="s">
         <v>24</v>
@@ -8399,10 +8399,10 @@
         <v>24</v>
       </c>
       <c r="C470" t="n">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D470" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E470" t="s">
         <v>24</v>
@@ -8416,10 +8416,10 @@
         <v>24</v>
       </c>
       <c r="C471" t="n">
-        <v>117</v>
+        <v>55</v>
       </c>
       <c r="D471" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E471" t="s">
         <v>24</v>
@@ -8433,12 +8433,29 @@
         <v>24</v>
       </c>
       <c r="C472" t="n">
+        <v>117</v>
+      </c>
+      <c r="D472" t="n">
+        <v>1</v>
+      </c>
+      <c r="E472" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="s">
+        <v>16</v>
+      </c>
+      <c r="B473" t="s">
+        <v>24</v>
+      </c>
+      <c r="C473" t="n">
         <v>119</v>
       </c>
-      <c r="D472" t="n">
-        <v>1</v>
-      </c>
-      <c r="E472" t="s">
+      <c r="D473" t="n">
+        <v>1</v>
+      </c>
+      <c r="E473" t="s">
         <v>24</v>
       </c>
     </row>
